--- a/PREGAME/1. ELICITACION/1.6 BACKLOG/G9_BACKLOG_V.3.0.xlsx
+++ b/PREGAME/1. ELICITACION/1.6 BACKLOG/G9_BACKLOG_V.3.0.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xavie\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xavie\OneDrive\Documentos\GitHub\8387_G9_MDSW\PREGAME\1. ELICITACION\1.6 BACKLOG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE33C84E-3DDA-4A26-9EF7-7F789E94206C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5CFC87-3040-40BA-A665-EA102182DBA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="55">
   <si>
     <t>t</t>
   </si>
@@ -201,12 +201,6 @@
   </si>
   <si>
     <t>Confirmacion de registro de inventario</t>
-  </si>
-  <si>
-    <t>Segun lo obtenido estamos llevnado el proyecto conforme al tiempo establecido cumpliendo los ciclos cortos de cada requisito presente.</t>
-  </si>
-  <si>
-    <t>Conclusión:</t>
   </si>
 </sst>
 </file>
@@ -357,8 +351,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -377,6 +369,8 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,34 +484,15 @@
           <bgColor rgb="FF66FF33"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF66FF33"/>
-        </patternFill>
-      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
+        <left/>
+        <right/>
+        <top style="thin">
           <color indexed="64"/>
-        </left>
-        <right style="thin">
+        </top>
+        <bottom style="thin">
           <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -567,15 +542,34 @@
           <bgColor rgb="FF66FF33"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF66FF33"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
+        <left style="thin">
           <color indexed="64"/>
-        </top>
-        <bottom style="thin">
+        </left>
+        <right style="thin">
           <color indexed="64"/>
-        </bottom>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -686,13 +680,13 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5</c:v>
@@ -979,9 +973,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="J4:J10" headerRowCount="0" headerRowDxfId="7" dataDxfId="5" totalsRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="J4:J10" headerRowCount="0" headerRowDxfId="8" dataDxfId="7" totalsRowDxfId="6">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="burdonchart-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -993,10 +987,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_2" displayName="Table_2" ref="H9:I10" headerRowCount="0" headerRowDxfId="2" dataDxfId="0" totalsRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_2" displayName="Table_2" ref="H9:I10" headerRowCount="0" headerRowDxfId="4" dataDxfId="3" totalsRowDxfId="2">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Column1" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Column2" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Column1" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Column2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="burdonchart-style 2" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1290,7 +1284,7 @@
       <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2377,26 +2371,26 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18" t="s">
+      <c r="F4" s="16"/>
+      <c r="G4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="16" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2420,17 +2414,17 @@
       <c r="A6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="7" t="s">
         <v>51</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="H6" s="17">
+      <c r="H6" s="15">
         <v>3</v>
       </c>
     </row>
@@ -2438,17 +2432,17 @@
       <c r="A7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="7" t="s">
         <v>51</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="H7" s="17">
+      <c r="H7" s="15">
         <v>2</v>
       </c>
     </row>
@@ -2456,12 +2450,12 @@
       <c r="A8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
       <c r="F8" s="7" t="s">
         <v>51</v>
       </c>
@@ -2540,12 +2534,12 @@
       <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
       <c r="F12" s="2" t="s">
         <v>53</v>
       </c>
@@ -2558,12 +2552,12 @@
       <c r="A13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
       <c r="F13" s="2" t="s">
         <v>53</v>
       </c>
@@ -3571,8 +3565,8 @@
   </sheetPr>
   <dimension ref="A1:J1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3616,233 +3610,233 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="18">
         <v>3</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="19">
         <v>0</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="19">
         <v>0</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="19">
         <v>0</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="19">
         <v>0</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="19">
         <v>1</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="19">
         <v>1</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="19">
         <v>1</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="18">
         <v>2</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="19">
         <v>0</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="19">
         <v>0</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="19">
         <v>0</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="19">
         <v>1</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="19">
         <v>1</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="19">
         <v>0</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="19">
         <v>0</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="18">
         <v>2</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="19">
+        <v>0</v>
+      </c>
+      <c r="D6" s="19">
+        <v>0</v>
+      </c>
+      <c r="E6" s="19">
+        <v>0</v>
+      </c>
+      <c r="F6" s="19">
         <v>1</v>
       </c>
-      <c r="D6" s="21">
+      <c r="G6" s="19">
+        <v>1</v>
+      </c>
+      <c r="H6" s="19">
         <v>0</v>
       </c>
-      <c r="E6" s="21">
+      <c r="I6" s="19">
         <v>0</v>
       </c>
-      <c r="F6" s="21">
-        <v>0</v>
-      </c>
-      <c r="G6" s="21">
-        <v>1</v>
-      </c>
-      <c r="H6" s="21">
-        <v>0</v>
-      </c>
-      <c r="I6" s="21">
-        <v>0</v>
-      </c>
-      <c r="J6" s="22">
+      <c r="J6" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="18">
         <v>3</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="19">
         <v>0</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="19">
         <v>0</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="19">
         <v>2</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="19">
         <v>1</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="19">
         <v>0</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="19">
         <v>0</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="19">
         <v>0</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="18">
         <v>3</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="19">
         <v>1</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="19">
         <v>2</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="19">
         <v>0</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="19">
         <v>0</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="19">
         <v>0</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="19">
         <v>0</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="19">
         <v>0</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="21">
         <v>0</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="19">
         <v>0</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="19">
         <v>0</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="19">
         <v>0</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="19">
         <v>0</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="19">
         <v>0</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="19">
         <v>0</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="19">
         <v>0</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="20">
         <f>SUM(B9:I9)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="21">
         <v>0</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="19">
         <v>0</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="19">
         <v>0</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="19">
         <v>0</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="19">
         <v>0</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="19">
         <v>0</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="19">
         <v>0</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="19">
         <v>0</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="20">
         <f>SUM(B10:I10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>47</v>
       </c>
@@ -3852,15 +3846,15 @@
       </c>
       <c r="C12" s="10">
         <f t="shared" ref="C12:I12" si="0">B12-SUM(C4:C10)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" s="12">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="10">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F12" s="10">
         <f t="shared" si="0"/>
@@ -3879,7 +3873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>48</v>
       </c>
@@ -3917,41 +3911,35 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
       <c r="D16" s="8"/>
-      <c r="G16" s="13" t="s">
-        <v>56</v>
-      </c>
+      <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
